--- a/data/trans_dic/P43E-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P43E-Dificultad-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1388812141840274</v>
+        <v>0.1381777672253828</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05988573261870954</v>
+        <v>0.06100337856822799</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09739940254096953</v>
+        <v>0.09535959298904055</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1936855329596383</v>
+        <v>0.1935568372585261</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09867054263128371</v>
+        <v>0.09990265396367486</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1742471121504797</v>
+        <v>0.1770504602516777</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1944211341786433</v>
+        <v>0.1919439123961198</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1264290575558977</v>
+        <v>0.1304291804384883</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1287676492631314</v>
+        <v>0.127243989105196</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2556213244154244</v>
+        <v>0.2578895166443955</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.188491337366608</v>
+        <v>0.1891147143777798</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1899921202618199</v>
+        <v>0.1887631636484759</v>
       </c>
     </row>
     <row r="10">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2084541169328475</v>
+        <v>0.2098746965594055</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1705662737033884</v>
+        <v>0.1675087688726607</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2125090318088551</v>
+        <v>0.2142571887780637</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2894053885461175</v>
+        <v>0.2888815040576574</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2472974059842813</v>
+        <v>0.2466986993271617</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2775433391092583</v>
+        <v>0.2827968042109047</v>
       </c>
     </row>
     <row r="13">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3172788790404966</v>
+        <v>0.3179718836012468</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2526895093683362</v>
+        <v>0.2562839082115759</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3634759438759746</v>
+        <v>0.363802476672825</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4332302189115109</v>
+        <v>0.4404780049434054</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3582093749651689</v>
+        <v>0.355541559132444</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4457846966743466</v>
+        <v>0.4455669607528085</v>
       </c>
     </row>
     <row r="16">
@@ -810,7 +810,7 @@
         <v>0.163817807083541</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2463866605723698</v>
+        <v>0.2463866605723697</v>
       </c>
     </row>
     <row r="17">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2128523027781271</v>
+        <v>0.2141074851906538</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1476305249933343</v>
+        <v>0.1488340626833029</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2289419540908842</v>
+        <v>0.2273802007932212</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2489784492557926</v>
+        <v>0.2502860489756654</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1825279984357688</v>
+        <v>0.1813912463594907</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2662752728346362</v>
+        <v>0.2645609783739207</v>
       </c>
     </row>
     <row r="19">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>100212</v>
+        <v>99705</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>43717</v>
+        <v>44533</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>23794</v>
+        <v>23296</v>
       </c>
     </row>
     <row r="7">
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>139757</v>
+        <v>139664</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>72030</v>
+        <v>72930</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>42567</v>
+        <v>43252</v>
       </c>
     </row>
     <row r="8">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>135514</v>
+        <v>133787</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>77731</v>
+        <v>80191</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>56420</v>
+        <v>55752</v>
       </c>
     </row>
     <row r="11">
@@ -1068,13 +1068,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>178171</v>
+        <v>179752</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>115889</v>
+        <v>116272</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>83246</v>
+        <v>82707</v>
       </c>
     </row>
     <row r="12">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>108377</v>
+        <v>109115</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>78382</v>
+        <v>76977</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>100892</v>
+        <v>101722</v>
       </c>
     </row>
     <row r="15">
@@ -1140,13 +1140,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>150464</v>
+        <v>150192</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>113643</v>
+        <v>113368</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>131769</v>
+        <v>134263</v>
       </c>
     </row>
     <row r="16">
@@ -1195,13 +1195,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>95138</v>
+        <v>95345</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>85302</v>
+        <v>86516</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>157559</v>
+        <v>157701</v>
       </c>
     </row>
     <row r="19">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>129906</v>
+        <v>132080</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>120923</v>
+        <v>120023</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>193238</v>
+        <v>193144</v>
       </c>
     </row>
     <row r="20">
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>476436</v>
+        <v>479246</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>316217</v>
+        <v>318795</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>364177</v>
+        <v>361693</v>
       </c>
     </row>
     <row r="23">
@@ -1284,13 +1284,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>557299</v>
+        <v>560226</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>390966</v>
+        <v>388531</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>423563</v>
+        <v>420836</v>
       </c>
     </row>
     <row r="24">
